--- a/data.xlsx
+++ b/data.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="urls" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="TOYS.RU LEGO" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="BabyToy LEGO" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>URL</t>
   </si>
@@ -21,6 +22,12 @@
   </si>
   <si>
     <t>StuffSelector</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Params</t>
   </si>
   <si>
     <t>https://www.toy.ru/search/index.php?q=lego</t>
@@ -42,6 +49,50 @@
     <t>a.product-name</t>
   </si>
   <si>
+    <t>https://www.toy.ru/search/index.php?q=lego&amp;PAGEN_7=2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>TOYS.RU</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> LEGO</t>
+    </r>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>TOYS.RU</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> LEGO</t>
+    </r>
+  </si>
+  <si>
+    <t>{ 'PAGEN_7': 2 }</t>
+  </si>
+  <si>
+    <t>http://www.babytoy.ru/index.php?name=lego&amp;adv_search=1&amp;done=</t>
+  </si>
+  <si>
+    <t>BabyToy LEGO</t>
+  </si>
+  <si>
+    <t>.cross-name a</t>
+  </si>
+  <si>
     <t>LookingFor</t>
   </si>
   <si>
@@ -85,13 +136,22 @@
   </si>
   <si>
     <t>find_all_lis</t>
+  </si>
+  <si>
+    <t>div.catalog-header</t>
+  </si>
+  <si>
+    <t>div.product-price</t>
+  </si>
+  <si>
+    <t>select_one_div_only_nums</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -101,6 +161,11 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+    </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -109,7 +174,6 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -141,6 +205,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -154,6 +221,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -371,24 +442,76 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>
     <hyperlink r:id="rId2" ref="B2"/>
+    <hyperlink r:id="rId3" ref="A3"/>
+    <hyperlink r:id="rId4" ref="B3"/>
+    <hyperlink r:id="rId5" ref="A4"/>
+    <hyperlink r:id="rId6" ref="B4"/>
+    <hyperlink r:id="rId7" ref="A5"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -404,57 +527,105 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
